--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -414,10 +414,10 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>GBSSS Jafrabad Extn Site 1</v>
+        <v>EDMC Schol MohnPuri Vjy Park 1</v>
       </c>
       <c r="B2" t="str">
-        <v>GBSSS Jafrabad Extn., Shahdara, Delhi, 110053</v>
+        <v>EDMC Primary School Mohan PuriVijay ParkDelhi, Shahdara, Delhi, 110053</v>
       </c>
       <c r="C2" t="str">
         <v>CORBEVAXFree</v>
@@ -429,7 +429,7 @@
         <v>#1</v>
       </c>
       <c r="F2" t="str">
-        <v>142 Slots</v>
+        <v>138 Slots</v>
       </c>
       <c r="G2" t="str">
         <v>Wed, 30 Mar</v>
@@ -452,10 +452,10 @@
         <v>#1</v>
       </c>
       <c r="F3" t="str">
-        <v>138 Slots</v>
+        <v>133 Slots</v>
       </c>
       <c r="G3" t="str">
-        <v>Wed, 30 Mar</v>
+        <v>Thu, 31 Mar</v>
       </c>
     </row>
     <row r="4">
@@ -475,38 +475,15 @@
         <v>#1</v>
       </c>
       <c r="F4" t="str">
-        <v>148 Slots</v>
+        <v>146 Slots</v>
       </c>
       <c r="G4" t="str">
-        <v>Thu, 31 Mar</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>EDMC Schol MohnPuri Vjy Park 1</v>
-      </c>
-      <c r="B5" t="str">
-        <v>EDMC Primary School Mohan PuriVijay ParkDelhi, Shahdara, Delhi, 110053</v>
-      </c>
-      <c r="C5" t="str">
-        <v>CORBEVAXFree</v>
-      </c>
-      <c r="D5" t="str">
-        <v>12-14 Only</v>
-      </c>
-      <c r="E5" t="str">
-        <v>#1</v>
-      </c>
-      <c r="F5" t="str">
-        <v>139 Slots</v>
-      </c>
-      <c r="G5" t="str">
         <v>Thu, 31 Mar</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G4"/>
   </ignoredErrors>
 </worksheet>
 </file>